--- a/Code/Results/Cases/Case_1_97/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_97/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.42618826128799</v>
+        <v>16.45845575611036</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.682623946266872</v>
+        <v>3.217835152341511</v>
       </c>
       <c r="E2">
-        <v>28.90116212527347</v>
+        <v>25.36626754610605</v>
       </c>
       <c r="F2">
-        <v>16.02604959834845</v>
+        <v>17.25248603758778</v>
       </c>
       <c r="G2">
-        <v>20.54613705182073</v>
+        <v>17.36485809358217</v>
       </c>
       <c r="H2">
-        <v>6.789292026382482</v>
+        <v>10.95481938028163</v>
       </c>
       <c r="I2">
-        <v>20.65678692060456</v>
+        <v>24.88978878512567</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.976667612132822</v>
+        <v>9.478113825664025</v>
       </c>
       <c r="M2">
-        <v>15.11783405793027</v>
+        <v>15.28720996369622</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.52738611380465</v>
+        <v>15.16812747536079</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.13278422450714</v>
+        <v>15.94367005869347</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.495197983152109</v>
+        <v>3.159650268412608</v>
       </c>
       <c r="E3">
-        <v>27.64568429837604</v>
+        <v>24.94554764005377</v>
       </c>
       <c r="F3">
-        <v>15.20186177315634</v>
+        <v>17.16108644283293</v>
       </c>
       <c r="G3">
-        <v>19.23304299540667</v>
+        <v>17.11070209341355</v>
       </c>
       <c r="H3">
-        <v>6.70249810216999</v>
+        <v>10.987134010166</v>
       </c>
       <c r="I3">
-        <v>20.26057570696099</v>
+        <v>24.89207753931743</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.360599750086852</v>
+        <v>9.297033254702527</v>
       </c>
       <c r="M3">
-        <v>14.27914756457588</v>
+        <v>15.02945467375484</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.10796602922678</v>
+        <v>15.17577376810196</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.29406641208434</v>
+        <v>15.6183845316253</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.374474508553122</v>
+        <v>3.123655407579521</v>
       </c>
       <c r="E4">
-        <v>26.84866050051687</v>
+        <v>24.68717998602125</v>
       </c>
       <c r="F4">
-        <v>14.69157045675477</v>
+        <v>17.11181683039942</v>
       </c>
       <c r="G4">
-        <v>18.40867670035069</v>
+        <v>16.96285270803779</v>
       </c>
       <c r="H4">
-        <v>6.65597518331215</v>
+        <v>11.00963196508436</v>
       </c>
       <c r="I4">
-        <v>20.03214705564314</v>
+        <v>24.90163803809496</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.961176196948388</v>
+        <v>9.184129021331568</v>
       </c>
       <c r="M4">
-        <v>13.73945658667787</v>
+        <v>14.86896751404717</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>10.85802551233776</v>
+        <v>15.18595763283854</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.94110915722425</v>
+        <v>15.48367509447023</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.323890338518964</v>
+        <v>3.108937139290828</v>
       </c>
       <c r="E5">
-        <v>26.51775009036938</v>
+        <v>24.58202147833993</v>
       </c>
       <c r="F5">
-        <v>14.48288738608187</v>
+        <v>17.09348033306944</v>
       </c>
       <c r="G5">
-        <v>18.0685815761752</v>
+        <v>16.90476455959222</v>
       </c>
       <c r="H5">
-        <v>6.638683903667133</v>
+        <v>11.01946614621141</v>
       </c>
       <c r="I5">
-        <v>19.94285058774568</v>
+        <v>24.90758857043684</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.793109896302971</v>
+        <v>9.137735977347802</v>
       </c>
       <c r="M5">
-        <v>13.51344142594974</v>
+        <v>14.80307157477163</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>10.75821957191704</v>
+        <v>15.19148382554263</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.88182748080814</v>
+        <v>15.46118166732514</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.315408043417701</v>
+        <v>3.106490680542723</v>
       </c>
       <c r="E6">
-        <v>26.46244795297474</v>
+        <v>24.56457186158082</v>
       </c>
       <c r="F6">
-        <v>14.44820186690768</v>
+        <v>17.09054122041085</v>
       </c>
       <c r="G6">
-        <v>18.01187128043859</v>
+        <v>16.89525238193869</v>
       </c>
       <c r="H6">
-        <v>6.635912258186452</v>
+        <v>11.02113927498065</v>
       </c>
       <c r="I6">
-        <v>19.92825332276737</v>
+        <v>24.90870082521666</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.764883504173488</v>
+        <v>9.13001073780341</v>
       </c>
       <c r="M6">
-        <v>13.47554869072106</v>
+        <v>14.79210152139856</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>10.74177454431842</v>
+        <v>15.19248442248577</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.28935148571399</v>
+        <v>15.61657628615022</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.373797889056057</v>
+        <v>3.123457091025138</v>
       </c>
       <c r="E7">
-        <v>26.84422183790975</v>
+        <v>24.68576107584607</v>
       </c>
       <c r="F7">
-        <v>14.68875859043888</v>
+        <v>17.11156246544827</v>
       </c>
       <c r="G7">
-        <v>18.40410630541539</v>
+        <v>16.96206043281179</v>
       </c>
       <c r="H7">
-        <v>6.655735287135685</v>
+        <v>11.00976189802415</v>
       </c>
       <c r="I7">
-        <v>20.03092735967422</v>
+        <v>24.90170996627763</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.95893100993524</v>
+        <v>9.183504836094604</v>
       </c>
       <c r="M7">
-        <v>13.73643291249901</v>
+        <v>14.86808074235599</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>10.85667102334449</v>
+        <v>15.18602659513194</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.98948401730829</v>
+        <v>16.28296080093604</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.619187190602208</v>
+        <v>3.197839275877797</v>
       </c>
       <c r="E8">
-        <v>28.47395846392637</v>
+        <v>25.22129536618107</v>
       </c>
       <c r="F8">
-        <v>15.74293253181542</v>
+        <v>17.21956202061706</v>
       </c>
       <c r="G8">
-        <v>20.09735381775654</v>
+        <v>17.27558380340668</v>
       </c>
       <c r="H8">
-        <v>6.757941420973721</v>
+        <v>10.96540893736773</v>
       </c>
       <c r="I8">
-        <v>20.517129134336</v>
+        <v>24.88888810073969</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.768647678445502</v>
+        <v>9.416062997734812</v>
       </c>
       <c r="M8">
-        <v>14.8338584773824</v>
+        <v>15.19883496593612</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.38127934307111</v>
+        <v>15.16962257032159</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.96953487174586</v>
+        <v>17.51031211221089</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.054571670754918</v>
+        <v>3.342430178855475</v>
       </c>
       <c r="E9">
-        <v>31.44523289198639</v>
+        <v>26.26513806046673</v>
       </c>
       <c r="F9">
-        <v>17.76447063108456</v>
+        <v>17.48471103094569</v>
       </c>
       <c r="G9">
-        <v>23.40872526734791</v>
+        <v>17.95084327298596</v>
       </c>
       <c r="H9">
-        <v>7.013338334832084</v>
+        <v>10.89959508279119</v>
       </c>
       <c r="I9">
-        <v>21.58543421510515</v>
+        <v>24.9282159859705</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.18824878529668</v>
+        <v>9.856410184077426</v>
       </c>
       <c r="M9">
-        <v>16.78533733385439</v>
+        <v>15.8271163073317</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.46424299425342</v>
+        <v>15.18113561121295</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.94407602335128</v>
+        <v>18.35604300654596</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.345464565804333</v>
+        <v>3.464578552378324</v>
       </c>
       <c r="E10">
-        <v>33.472297295717</v>
+        <v>27.02041974202161</v>
       </c>
       <c r="F10">
-        <v>19.33210831567719</v>
+        <v>17.7104941113035</v>
       </c>
       <c r="G10">
-        <v>25.7365777365281</v>
+        <v>18.47726366782242</v>
       </c>
       <c r="H10">
-        <v>7.235829548083084</v>
+        <v>10.86424935747377</v>
       </c>
       <c r="I10">
-        <v>22.4360382853756</v>
+        <v>24.99599871058021</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.12878063090694</v>
+        <v>10.16776475049617</v>
       </c>
       <c r="M10">
-        <v>18.19065825281729</v>
+        <v>16.27289668302444</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.35444889061982</v>
+        <v>15.21631992442333</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.79613961368913</v>
+        <v>18.72728648971335</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.471366638226439</v>
+        <v>3.518298364037961</v>
       </c>
       <c r="E11">
-        <v>34.35757262883541</v>
+        <v>27.35993920836514</v>
       </c>
       <c r="F11">
-        <v>20.08305518128212</v>
+        <v>17.81954292777671</v>
       </c>
       <c r="G11">
-        <v>26.76407657142891</v>
+        <v>18.72189075053835</v>
       </c>
       <c r="H11">
-        <v>7.344801332586172</v>
+        <v>10.85101438382307</v>
       </c>
       <c r="I11">
-        <v>22.83631218855433</v>
+        <v>25.03515809588107</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.53457529997107</v>
+        <v>10.30626124219064</v>
       </c>
       <c r="M11">
-        <v>18.80815903460199</v>
+        <v>16.47158323997095</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.89828509855298</v>
+        <v>15.23812363490352</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.11220443549091</v>
+        <v>18.86583212980472</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.518110813859104</v>
+        <v>3.538363517851526</v>
       </c>
       <c r="E12">
-        <v>34.68730713868663</v>
+        <v>27.48780031477444</v>
       </c>
       <c r="F12">
-        <v>20.36366885338423</v>
+        <v>17.86171172179489</v>
       </c>
       <c r="G12">
-        <v>27.1486796359277</v>
+        <v>18.8151461826879</v>
       </c>
       <c r="H12">
-        <v>7.387191568993852</v>
+        <v>10.84641302807382</v>
       </c>
       <c r="I12">
-        <v>22.98972361437272</v>
+        <v>25.0511711269417</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.68508707246011</v>
+        <v>10.35821581572247</v>
       </c>
       <c r="M12">
-        <v>19.0371588274695</v>
+        <v>16.54617809160563</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.10152485163671</v>
+        <v>15.24721128474586</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.04442664113235</v>
+        <v>18.83608583861316</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.508085179496313</v>
+        <v>3.534054642883467</v>
       </c>
       <c r="E13">
-        <v>34.61654036183745</v>
+        <v>27.46029650541242</v>
       </c>
       <c r="F13">
-        <v>20.30339994596371</v>
+        <v>17.85259164420126</v>
       </c>
       <c r="G13">
-        <v>27.06604716043425</v>
+        <v>18.79503626944468</v>
       </c>
       <c r="H13">
-        <v>7.378011918925244</v>
+        <v>10.8473857359262</v>
       </c>
       <c r="I13">
-        <v>22.95660326783963</v>
+        <v>25.04766998670164</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.65281160333838</v>
+        <v>10.3470489096536</v>
       </c>
       <c r="M13">
-        <v>18.98805400775534</v>
+        <v>16.53014219628563</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.0578726306448</v>
+        <v>15.2452171924365</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.82227430360525</v>
+        <v>18.7387260490379</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.475231029186059</v>
+        <v>3.519954759837437</v>
       </c>
       <c r="E14">
-        <v>34.38481134288124</v>
+        <v>27.37047328380441</v>
       </c>
       <c r="F14">
-        <v>20.10621642828432</v>
+        <v>17.82299487666794</v>
       </c>
       <c r="G14">
-        <v>26.7958077206</v>
+        <v>18.72955118298199</v>
       </c>
       <c r="H14">
-        <v>7.348266212712189</v>
+        <v>10.85062759372282</v>
       </c>
       <c r="I14">
-        <v>22.84889707665227</v>
+        <v>25.03645184313472</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.54702108292176</v>
+        <v>10.31054563457793</v>
       </c>
       <c r="M14">
-        <v>18.82709564923762</v>
+        <v>16.47773339582996</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.91505951288914</v>
+        <v>15.23885464591047</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.68534244945628</v>
+        <v>18.67882249645134</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.454985319183267</v>
+        <v>3.511281716370767</v>
       </c>
       <c r="E15">
-        <v>34.24214898605348</v>
+        <v>27.31535826574802</v>
       </c>
       <c r="F15">
-        <v>19.98494819453557</v>
+        <v>17.8049787310162</v>
       </c>
       <c r="G15">
-        <v>26.62969540190179</v>
+        <v>18.68951691709623</v>
       </c>
       <c r="H15">
-        <v>7.330192844437843</v>
+        <v>10.85266681815844</v>
       </c>
       <c r="I15">
-        <v>22.78316077860209</v>
+        <v>25.02973421900984</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.48181122076302</v>
+        <v>10.28812124789585</v>
       </c>
       <c r="M15">
-        <v>18.72787558411697</v>
+        <v>16.44554615449816</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.82723257404473</v>
+        <v>15.23506552770298</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.887466377755</v>
+        <v>18.3315014721472</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.337106497202601</v>
+        <v>3.461029646783156</v>
       </c>
       <c r="E16">
-        <v>33.41368296770831</v>
+        <v>26.99813891670083</v>
       </c>
       <c r="F16">
-        <v>19.28250491344148</v>
+        <v>17.70349194513788</v>
       </c>
       <c r="G16">
-        <v>25.66879742587132</v>
+        <v>18.46137009084963</v>
       </c>
       <c r="H16">
-        <v>7.228864972359385</v>
+        <v>10.86517165231743</v>
       </c>
       <c r="I16">
-        <v>22.41014068822066</v>
+        <v>24.99360600278537</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.10181857085085</v>
+        <v>10.15864705685344</v>
       </c>
       <c r="M16">
-        <v>18.14962455721565</v>
+        <v>16.25982486682545</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.31852712814469</v>
+        <v>15.2150114730521</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.38620068645973</v>
+        <v>18.11490494643174</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.263139027040654</v>
+        <v>3.42971999958272</v>
       </c>
       <c r="E17">
-        <v>32.89585356584612</v>
+        <v>26.8024049854324</v>
       </c>
       <c r="F17">
-        <v>18.84485697439663</v>
+        <v>17.64283092928868</v>
       </c>
       <c r="G17">
-        <v>25.07127397328311</v>
+        <v>18.32264348143622</v>
       </c>
       <c r="H17">
-        <v>7.168698412117855</v>
+        <v>10.87357247581541</v>
       </c>
       <c r="I17">
-        <v>22.1846603603424</v>
+        <v>24.97356600777152</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.86306718686971</v>
+        <v>10.07838565132662</v>
       </c>
       <c r="M17">
-        <v>17.78623573381381</v>
+        <v>16.14480133863291</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.04564855025799</v>
+        <v>15.20419250202293</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.09353733113046</v>
+        <v>17.98906026697715</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.219990287940221</v>
+        <v>3.411538400230288</v>
       </c>
       <c r="E18">
-        <v>32.59455320741638</v>
+        <v>26.68944867900328</v>
       </c>
       <c r="F18">
-        <v>18.59065598532696</v>
+        <v>17.60853934708107</v>
       </c>
       <c r="G18">
-        <v>24.72462912770271</v>
+        <v>18.24334408416242</v>
       </c>
       <c r="H18">
-        <v>7.134822213836128</v>
+        <v>10.87867201651299</v>
       </c>
       <c r="I18">
-        <v>22.05622931442143</v>
+        <v>24.96282396006842</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.72366611216208</v>
+        <v>10.03192803885728</v>
       </c>
       <c r="M18">
-        <v>17.57403385885674</v>
+        <v>16.07825985422601</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.92223000747443</v>
+        <v>15.19851571528176</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.99369843744154</v>
+        <v>17.9462374621796</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.205277316028305</v>
+        <v>3.405353069595962</v>
       </c>
       <c r="E19">
-        <v>32.49195080773895</v>
+        <v>26.65114301368097</v>
       </c>
       <c r="F19">
-        <v>18.50416198857601</v>
+        <v>17.59703278588529</v>
       </c>
       <c r="G19">
-        <v>24.60675145229613</v>
+        <v>18.21658296128722</v>
       </c>
       <c r="H19">
-        <v>7.123477370613286</v>
+        <v>10.88044454787185</v>
       </c>
       <c r="I19">
-        <v>22.01296357860086</v>
+        <v>24.95932197986372</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.67610999995015</v>
+        <v>10.01614914623512</v>
       </c>
       <c r="M19">
-        <v>17.50163702851044</v>
+        <v>16.05566595523015</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.88051549458794</v>
+        <v>15.19668748990824</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.4400110365946</v>
+        <v>18.13809358479436</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.271075632157344</v>
+        <v>3.433070971592221</v>
       </c>
       <c r="E20">
-        <v>32.9513369142847</v>
+        <v>26.82328095515287</v>
       </c>
       <c r="F20">
-        <v>18.89170163921427</v>
+        <v>17.64922666277972</v>
       </c>
       <c r="G20">
-        <v>25.13518811911954</v>
+        <v>18.33736107672328</v>
       </c>
       <c r="H20">
-        <v>7.175027616285676</v>
+        <v>10.87265048603018</v>
       </c>
       <c r="I20">
-        <v>22.20853339455884</v>
+        <v>24.97561820237939</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.88869758584294</v>
+        <v>10.08696027210168</v>
       </c>
       <c r="M20">
-        <v>17.82524903057189</v>
+        <v>16.15708582610981</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.06852443889207</v>
+        <v>15.20528770655608</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.88770436308273</v>
+        <v>18.76737896123628</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.48490644035582</v>
+        <v>3.524103854896779</v>
       </c>
       <c r="E21">
-        <v>34.45302647296691</v>
+        <v>27.39687669690962</v>
       </c>
       <c r="F21">
-        <v>20.16423554958767</v>
+        <v>17.83166474140726</v>
       </c>
       <c r="G21">
-        <v>26.87530494812381</v>
+        <v>18.74876985679895</v>
       </c>
       <c r="H21">
-        <v>7.35697265505517</v>
+        <v>10.84966423120039</v>
       </c>
       <c r="I21">
-        <v>22.88048377133164</v>
+        <v>25.03971485449338</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.57817975208119</v>
+        <v>10.32128116014552</v>
       </c>
       <c r="M21">
-        <v>18.87450391231221</v>
+        <v>16.49314500693752</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.95707997181568</v>
+        <v>15.24070095353487</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.79545250944683</v>
+        <v>19.16674732828545</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.619221697952146</v>
+        <v>3.581977557268734</v>
       </c>
       <c r="E22">
-        <v>35.4023396057565</v>
+        <v>27.76757773355791</v>
       </c>
       <c r="F22">
-        <v>20.97405985511269</v>
+        <v>17.95597638706202</v>
       </c>
       <c r="G22">
-        <v>27.98645171314324</v>
+        <v>19.02121110159419</v>
       </c>
       <c r="H22">
-        <v>7.482444267360863</v>
+        <v>10.83703432876688</v>
       </c>
       <c r="I22">
-        <v>23.33031307817817</v>
+        <v>25.08850123037642</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.01042450964942</v>
+        <v>10.47154470877203</v>
       </c>
       <c r="M22">
-        <v>19.53209462541533</v>
+        <v>16.70900585038768</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.54367800623044</v>
+        <v>15.2686874135473</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.31446697766712</v>
+        <v>18.95471560170349</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.548034457570767</v>
+        <v>3.551241315186404</v>
       </c>
       <c r="E23">
-        <v>34.89867062497051</v>
+        <v>27.57014896598915</v>
       </c>
       <c r="F23">
-        <v>20.54382584348085</v>
+        <v>17.8891771254911</v>
       </c>
       <c r="G23">
-        <v>27.39578078221996</v>
+        <v>18.87551765865456</v>
       </c>
       <c r="H23">
-        <v>7.414875024293344</v>
+        <v>10.84355574179494</v>
       </c>
       <c r="I23">
-        <v>23.08927939022596</v>
+        <v>25.06183672736702</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.7814012635248</v>
+        <v>10.39162201476739</v>
       </c>
       <c r="M23">
-        <v>19.18368937085122</v>
+        <v>16.59415908670958</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.23201589531165</v>
+        <v>15.25330871910899</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.41569733181949</v>
+        <v>18.12761410678644</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.267489435512535</v>
+        <v>3.431556560834392</v>
       </c>
       <c r="E24">
-        <v>32.9262640692325</v>
+        <v>26.8138442474695</v>
       </c>
       <c r="F24">
-        <v>18.87053123948138</v>
+        <v>17.64633333210102</v>
       </c>
       <c r="G24">
-        <v>25.106302256104</v>
+        <v>18.33070582108011</v>
       </c>
       <c r="H24">
-        <v>7.172163958730393</v>
+        <v>10.87306647731511</v>
       </c>
       <c r="I24">
-        <v>22.19773665000831</v>
+        <v>24.97468797704656</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.87711674854561</v>
+        <v>10.08308466187233</v>
       </c>
       <c r="M24">
-        <v>17.80762135316604</v>
+        <v>16.15153329136439</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.05818115030974</v>
+        <v>15.20479087240159</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.20120756013691</v>
+        <v>17.18761916884394</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.941819468764773</v>
+        <v>3.302549633918447</v>
       </c>
       <c r="E25">
-        <v>30.66763206097559</v>
+        <v>25.98424847407998</v>
       </c>
       <c r="F25">
-        <v>17.2239790165588</v>
+        <v>17.40741671513138</v>
       </c>
       <c r="G25">
-        <v>22.52358233163551</v>
+        <v>17.76236082560722</v>
       </c>
       <c r="H25">
-        <v>6.938203196102341</v>
+        <v>10.9151223891444</v>
       </c>
       <c r="I25">
-        <v>21.28456083425106</v>
+        <v>24.91071126444923</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.82223724733301</v>
+        <v>9.739242213952446</v>
       </c>
       <c r="M25">
-        <v>16.27937982370894</v>
+        <v>15.65968887962068</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.16627234688525</v>
+        <v>15.17332973051478</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_97/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_97/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.45845575611036</v>
+        <v>20.42618826128797</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.217835152341511</v>
+        <v>3.682623946266914</v>
       </c>
       <c r="E2">
-        <v>25.36626754610605</v>
+        <v>28.90116212527342</v>
       </c>
       <c r="F2">
-        <v>17.25248603758778</v>
+        <v>16.02604959834844</v>
       </c>
       <c r="G2">
-        <v>17.36485809358217</v>
+        <v>20.54613705182073</v>
       </c>
       <c r="H2">
-        <v>10.95481938028163</v>
+        <v>6.789292026382476</v>
       </c>
       <c r="I2">
-        <v>24.88978878512567</v>
+        <v>20.65678692060455</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.478113825664025</v>
+        <v>9.976667612132823</v>
       </c>
       <c r="M2">
-        <v>15.28720996369622</v>
+        <v>15.11783405793026</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.16812747536079</v>
+        <v>11.52738611380467</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.94367005869347</v>
+        <v>19.13278422450709</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.159650268412608</v>
+        <v>3.495197983152264</v>
       </c>
       <c r="E3">
-        <v>24.94554764005377</v>
+        <v>27.64568429837606</v>
       </c>
       <c r="F3">
-        <v>17.16108644283293</v>
+        <v>15.20186177315624</v>
       </c>
       <c r="G3">
-        <v>17.11070209341355</v>
+        <v>19.23304299540665</v>
       </c>
       <c r="H3">
-        <v>10.987134010166</v>
+        <v>6.702498102169995</v>
       </c>
       <c r="I3">
-        <v>24.89207753931743</v>
+        <v>20.26057570696092</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.297033254702527</v>
+        <v>9.360599750086838</v>
       </c>
       <c r="M3">
-        <v>15.02945467375484</v>
+        <v>14.27914756457585</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.17577376810196</v>
+        <v>11.10796602922673</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.6183845316253</v>
+        <v>18.2940664120844</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.123655407579521</v>
+        <v>3.374474508553122</v>
       </c>
       <c r="E4">
-        <v>24.68717998602125</v>
+        <v>26.84866050051684</v>
       </c>
       <c r="F4">
-        <v>17.11181683039942</v>
+        <v>14.69157045675483</v>
       </c>
       <c r="G4">
-        <v>16.96285270803779</v>
+        <v>18.4086767003507</v>
       </c>
       <c r="H4">
-        <v>11.00963196508436</v>
+        <v>6.655975183312236</v>
       </c>
       <c r="I4">
-        <v>24.90163803809496</v>
+        <v>20.03214705564321</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.184129021331568</v>
+        <v>8.961176196948383</v>
       </c>
       <c r="M4">
-        <v>14.86896751404717</v>
+        <v>13.73945658667787</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.18595763283854</v>
+        <v>10.85802551233783</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.48367509447023</v>
+        <v>17.94110915722425</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.108937139290828</v>
+        <v>3.323890338518951</v>
       </c>
       <c r="E5">
-        <v>24.58202147833993</v>
+        <v>26.5177500903694</v>
       </c>
       <c r="F5">
-        <v>17.09348033306944</v>
+        <v>14.48288738608185</v>
       </c>
       <c r="G5">
-        <v>16.90476455959222</v>
+        <v>18.0685815761752</v>
       </c>
       <c r="H5">
-        <v>11.01946614621141</v>
+        <v>6.638683903667089</v>
       </c>
       <c r="I5">
-        <v>24.90758857043684</v>
+        <v>19.94285058774568</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.137735977347802</v>
+        <v>8.79310989630293</v>
       </c>
       <c r="M5">
-        <v>14.80307157477163</v>
+        <v>13.51344142594975</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.19148382554263</v>
+        <v>10.75821957191704</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.46118166732514</v>
+        <v>17.88182748080814</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.106490680542723</v>
+        <v>3.315408043417747</v>
       </c>
       <c r="E6">
-        <v>24.56457186158082</v>
+        <v>26.46244795297488</v>
       </c>
       <c r="F6">
-        <v>17.09054122041085</v>
+        <v>14.44820186690763</v>
       </c>
       <c r="G6">
-        <v>16.89525238193869</v>
+        <v>18.01187128043854</v>
       </c>
       <c r="H6">
-        <v>11.02113927498065</v>
+        <v>6.635912258186385</v>
       </c>
       <c r="I6">
-        <v>24.90870082521666</v>
+        <v>19.92825332276745</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.13001073780341</v>
+        <v>8.764883504173463</v>
       </c>
       <c r="M6">
-        <v>14.79210152139856</v>
+        <v>13.47554869072106</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.19248442248577</v>
+        <v>10.74177454431839</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.61657628615022</v>
+        <v>18.28935148571401</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.123457091025138</v>
+        <v>3.373797889056108</v>
       </c>
       <c r="E7">
-        <v>24.68576107584607</v>
+        <v>26.84422183790981</v>
       </c>
       <c r="F7">
-        <v>17.11156246544827</v>
+        <v>14.68875859043897</v>
       </c>
       <c r="G7">
-        <v>16.96206043281179</v>
+        <v>18.4041063054155</v>
       </c>
       <c r="H7">
-        <v>11.00976189802415</v>
+        <v>6.65573528713575</v>
       </c>
       <c r="I7">
-        <v>24.90170996627763</v>
+        <v>20.03092735967435</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.183504836094604</v>
+        <v>8.958931009935188</v>
       </c>
       <c r="M7">
-        <v>14.86808074235599</v>
+        <v>13.73643291249903</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.18602659513194</v>
+        <v>10.8566710233446</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.28296080093604</v>
+        <v>19.98948401730831</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.197839275877797</v>
+        <v>3.619187190602259</v>
       </c>
       <c r="E8">
-        <v>25.22129536618107</v>
+        <v>28.47395846392626</v>
       </c>
       <c r="F8">
-        <v>17.21956202061706</v>
+        <v>15.74293253181537</v>
       </c>
       <c r="G8">
-        <v>17.27558380340668</v>
+        <v>20.09735381775655</v>
       </c>
       <c r="H8">
-        <v>10.96540893736773</v>
+        <v>6.757941420973677</v>
       </c>
       <c r="I8">
-        <v>24.88888810073969</v>
+        <v>20.51712913433583</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.416062997734812</v>
+        <v>9.768647678445477</v>
       </c>
       <c r="M8">
-        <v>15.19883496593612</v>
+        <v>14.83385847738238</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.16962257032159</v>
+        <v>11.38127934307104</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.51031211221089</v>
+        <v>22.96953487174592</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.342430178855475</v>
+        <v>4.054571670754903</v>
       </c>
       <c r="E9">
-        <v>26.26513806046673</v>
+        <v>31.44523289198643</v>
       </c>
       <c r="F9">
-        <v>17.48471103094569</v>
+        <v>17.76447063108457</v>
       </c>
       <c r="G9">
-        <v>17.95084327298596</v>
+        <v>23.40872526734795</v>
       </c>
       <c r="H9">
-        <v>10.89959508279119</v>
+        <v>7.013338334832097</v>
       </c>
       <c r="I9">
-        <v>24.9282159859705</v>
+        <v>21.58543421510515</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.856410184077426</v>
+        <v>11.18824878529666</v>
       </c>
       <c r="M9">
-        <v>15.8271163073317</v>
+        <v>16.78533733385443</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.18113561121295</v>
+        <v>12.46424299425344</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.35604300654596</v>
+        <v>24.94407602335125</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.464578552378324</v>
+        <v>4.345464565804378</v>
       </c>
       <c r="E10">
-        <v>27.02041974202161</v>
+        <v>33.47229729571686</v>
       </c>
       <c r="F10">
-        <v>17.7104941113035</v>
+        <v>19.33210831567724</v>
       </c>
       <c r="G10">
-        <v>18.47726366782242</v>
+        <v>25.7365777365282</v>
       </c>
       <c r="H10">
-        <v>10.86424935747377</v>
+        <v>7.235829548083091</v>
       </c>
       <c r="I10">
-        <v>24.99599871058021</v>
+        <v>22.43603828537546</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.16776475049617</v>
+        <v>12.12878063090694</v>
       </c>
       <c r="M10">
-        <v>16.27289668302444</v>
+        <v>18.19065825281729</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.21631992442333</v>
+        <v>13.35444889061984</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.72728648971335</v>
+        <v>25.79613961368913</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.518298364037961</v>
+        <v>4.471366638226486</v>
       </c>
       <c r="E11">
-        <v>27.35993920836514</v>
+        <v>34.3575726288354</v>
       </c>
       <c r="F11">
-        <v>17.81954292777671</v>
+        <v>20.08305518128216</v>
       </c>
       <c r="G11">
-        <v>18.72189075053835</v>
+        <v>26.76407657142893</v>
       </c>
       <c r="H11">
-        <v>10.85101438382307</v>
+        <v>7.344801332586163</v>
       </c>
       <c r="I11">
-        <v>25.03515809588107</v>
+        <v>22.83631218855427</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.30626124219064</v>
+        <v>12.53457529997105</v>
       </c>
       <c r="M11">
-        <v>16.47158323997095</v>
+        <v>18.80815903460198</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.23812363490352</v>
+        <v>13.89828509855302</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.86583212980472</v>
+        <v>26.11220443549088</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.538363517851526</v>
+        <v>4.518110813859058</v>
       </c>
       <c r="E12">
-        <v>27.48780031477444</v>
+        <v>34.68730713868651</v>
       </c>
       <c r="F12">
-        <v>17.86171172179489</v>
+        <v>20.3636688533842</v>
       </c>
       <c r="G12">
-        <v>18.8151461826879</v>
+        <v>27.14867963592763</v>
       </c>
       <c r="H12">
-        <v>10.84641302807382</v>
+        <v>7.387191568993858</v>
       </c>
       <c r="I12">
-        <v>25.0511711269417</v>
+        <v>22.98972361437265</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.35821581572247</v>
+        <v>12.68508707246007</v>
       </c>
       <c r="M12">
-        <v>16.54617809160563</v>
+        <v>19.03715882746947</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.24721128474586</v>
+        <v>14.10152485163668</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.83608583861316</v>
+        <v>26.04442664113235</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.534054642883467</v>
+        <v>4.508085179496312</v>
       </c>
       <c r="E13">
-        <v>27.46029650541242</v>
+        <v>34.61654036183754</v>
       </c>
       <c r="F13">
-        <v>17.85259164420126</v>
+        <v>20.30339994596374</v>
       </c>
       <c r="G13">
-        <v>18.79503626944468</v>
+        <v>27.06604716043427</v>
       </c>
       <c r="H13">
-        <v>10.8473857359262</v>
+        <v>7.37801191892523</v>
       </c>
       <c r="I13">
-        <v>25.04766998670164</v>
+        <v>22.95660326783969</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.3470489096536</v>
+        <v>12.65281160333839</v>
       </c>
       <c r="M13">
-        <v>16.53014219628563</v>
+        <v>18.98805400775533</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.2452171924365</v>
+        <v>14.05787263064484</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.7387260490379</v>
+        <v>25.82227430360529</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.519954759837437</v>
+        <v>4.475231029186035</v>
       </c>
       <c r="E14">
-        <v>27.37047328380441</v>
+        <v>34.38481134288121</v>
       </c>
       <c r="F14">
-        <v>17.82299487666794</v>
+        <v>20.10621642828427</v>
       </c>
       <c r="G14">
-        <v>18.72955118298199</v>
+        <v>26.79580772060001</v>
       </c>
       <c r="H14">
-        <v>10.85062759372282</v>
+        <v>7.348266212712195</v>
       </c>
       <c r="I14">
-        <v>25.03645184313472</v>
+        <v>22.84889707665226</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.31054563457793</v>
+        <v>12.54702108292177</v>
       </c>
       <c r="M14">
-        <v>16.47773339582996</v>
+        <v>18.82709564923766</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.23885464591047</v>
+        <v>13.9150595128891</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.67882249645134</v>
+        <v>25.68534244945631</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.511281716370767</v>
+        <v>4.454985319183299</v>
       </c>
       <c r="E15">
-        <v>27.31535826574802</v>
+        <v>34.24214898605353</v>
       </c>
       <c r="F15">
-        <v>17.8049787310162</v>
+        <v>19.98494819453559</v>
       </c>
       <c r="G15">
-        <v>18.68951691709623</v>
+        <v>26.6296954019018</v>
       </c>
       <c r="H15">
-        <v>10.85266681815844</v>
+        <v>7.330192844437843</v>
       </c>
       <c r="I15">
-        <v>25.02973421900984</v>
+        <v>22.78316077860215</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.28812124789585</v>
+        <v>12.48181122076306</v>
       </c>
       <c r="M15">
-        <v>16.44554615449816</v>
+        <v>18.727875584117</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.23506552770298</v>
+        <v>13.82723257404474</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.3315014721472</v>
+        <v>24.88746637775499</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.461029646783156</v>
+        <v>4.337106497202664</v>
       </c>
       <c r="E16">
-        <v>26.99813891670083</v>
+        <v>33.41368296770825</v>
       </c>
       <c r="F16">
-        <v>17.70349194513788</v>
+        <v>19.28250491344159</v>
       </c>
       <c r="G16">
-        <v>18.46137009084963</v>
+        <v>25.66879742587148</v>
       </c>
       <c r="H16">
-        <v>10.86517165231743</v>
+        <v>7.228864972359348</v>
       </c>
       <c r="I16">
-        <v>24.99360600278537</v>
+        <v>22.41014068822053</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.15864705685344</v>
+        <v>12.10181857085083</v>
       </c>
       <c r="M16">
-        <v>16.25982486682545</v>
+        <v>18.14962455721567</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.2150114730521</v>
+        <v>13.3185271281448</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.11490494643174</v>
+        <v>24.38620068645979</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.42971999958272</v>
+        <v>4.263139027040654</v>
       </c>
       <c r="E17">
-        <v>26.8024049854324</v>
+        <v>32.89585356584619</v>
       </c>
       <c r="F17">
-        <v>17.64283092928868</v>
+        <v>18.84485697439658</v>
       </c>
       <c r="G17">
-        <v>18.32264348143622</v>
+        <v>25.07127397328311</v>
       </c>
       <c r="H17">
-        <v>10.87357247581541</v>
+        <v>7.168698412117876</v>
       </c>
       <c r="I17">
-        <v>24.97356600777152</v>
+        <v>22.18466036034249</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.07838565132662</v>
+        <v>11.86306718686976</v>
       </c>
       <c r="M17">
-        <v>16.14480133863291</v>
+        <v>17.78623573381379</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.20419250202293</v>
+        <v>13.04564855025797</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.98906026697715</v>
+        <v>24.09353733113048</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.411538400230288</v>
+        <v>4.219990287940243</v>
       </c>
       <c r="E18">
-        <v>26.68944867900328</v>
+        <v>32.59455320741625</v>
       </c>
       <c r="F18">
-        <v>17.60853934708107</v>
+        <v>18.590655985327</v>
       </c>
       <c r="G18">
-        <v>18.24334408416242</v>
+        <v>24.72462912770272</v>
       </c>
       <c r="H18">
-        <v>10.87867201651299</v>
+        <v>7.134822213836142</v>
       </c>
       <c r="I18">
-        <v>24.96282396006842</v>
+        <v>22.0562293144213</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.03192803885728</v>
+        <v>11.72366611216207</v>
       </c>
       <c r="M18">
-        <v>16.07825985422601</v>
+        <v>17.57403385885676</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.19851571528176</v>
+        <v>12.92223000747444</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.9462374621796</v>
+        <v>23.99369843744155</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.405353069595962</v>
+        <v>4.205277316028387</v>
       </c>
       <c r="E19">
-        <v>26.65114301368097</v>
+        <v>32.49195080773891</v>
       </c>
       <c r="F19">
-        <v>17.59703278588529</v>
+        <v>18.50416198857604</v>
       </c>
       <c r="G19">
-        <v>18.21658296128722</v>
+        <v>24.60675145229617</v>
       </c>
       <c r="H19">
-        <v>10.88044454787185</v>
+        <v>7.123477370613361</v>
       </c>
       <c r="I19">
-        <v>24.95932197986372</v>
+        <v>22.01296357860075</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.01614914623512</v>
+        <v>11.67610999995011</v>
       </c>
       <c r="M19">
-        <v>16.05566595523015</v>
+        <v>17.50163702851041</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.19668748990824</v>
+        <v>12.88051549458796</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.13809358479436</v>
+        <v>24.44001103659462</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.433070971592221</v>
+        <v>4.271075632157376</v>
       </c>
       <c r="E20">
-        <v>26.82328095515287</v>
+        <v>32.95133691428468</v>
       </c>
       <c r="F20">
-        <v>17.64922666277972</v>
+        <v>18.89170163921425</v>
       </c>
       <c r="G20">
-        <v>18.33736107672328</v>
+        <v>25.1351881191195</v>
       </c>
       <c r="H20">
-        <v>10.87265048603018</v>
+        <v>7.175027616285681</v>
       </c>
       <c r="I20">
-        <v>24.97561820237939</v>
+        <v>22.20853339455891</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.08696027210168</v>
+        <v>11.888697585843</v>
       </c>
       <c r="M20">
-        <v>16.15708582610981</v>
+        <v>17.8252490305719</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.20528770655608</v>
+        <v>13.06852443889207</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.76737896123628</v>
+        <v>25.88770436308273</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.524103854896779</v>
+        <v>4.484906440355875</v>
       </c>
       <c r="E21">
-        <v>27.39687669690962</v>
+        <v>34.4530264729668</v>
       </c>
       <c r="F21">
-        <v>17.83166474140726</v>
+        <v>20.16423554958769</v>
       </c>
       <c r="G21">
-        <v>18.74876985679895</v>
+        <v>26.87530494812374</v>
       </c>
       <c r="H21">
-        <v>10.84966423120039</v>
+        <v>7.356972655055126</v>
       </c>
       <c r="I21">
-        <v>25.03971485449338</v>
+        <v>22.88048377133162</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.32128116014552</v>
+        <v>12.57817975208123</v>
       </c>
       <c r="M21">
-        <v>16.49314500693752</v>
+        <v>18.87450391231221</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.24070095353487</v>
+        <v>13.95707997181567</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.16674732828545</v>
+        <v>26.79545250944674</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.581977557268734</v>
+        <v>4.619221697952193</v>
       </c>
       <c r="E22">
-        <v>27.76757773355791</v>
+        <v>35.40233960575648</v>
       </c>
       <c r="F22">
-        <v>17.95597638706202</v>
+        <v>20.9740598551127</v>
       </c>
       <c r="G22">
-        <v>19.02121110159419</v>
+        <v>27.98645171314318</v>
       </c>
       <c r="H22">
-        <v>10.83703432876688</v>
+        <v>7.482444267360881</v>
       </c>
       <c r="I22">
-        <v>25.08850123037642</v>
+        <v>23.33031307817815</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.47154470877203</v>
+        <v>13.01042450964939</v>
       </c>
       <c r="M22">
-        <v>16.70900585038768</v>
+        <v>19.53209462541531</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.2686874135473</v>
+        <v>14.54367800623044</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.95471560170349</v>
+        <v>26.31446697766712</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.551241315186404</v>
+        <v>4.548034457570797</v>
       </c>
       <c r="E23">
-        <v>27.57014896598915</v>
+        <v>34.89867062497072</v>
       </c>
       <c r="F23">
-        <v>17.8891771254911</v>
+        <v>20.54382584348079</v>
       </c>
       <c r="G23">
-        <v>18.87551765865456</v>
+        <v>27.39578078221993</v>
       </c>
       <c r="H23">
-        <v>10.84355574179494</v>
+        <v>7.414875024293351</v>
       </c>
       <c r="I23">
-        <v>25.06183672736702</v>
+        <v>23.08927939022613</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.39162201476739</v>
+        <v>12.78140126352478</v>
       </c>
       <c r="M23">
-        <v>16.59415908670958</v>
+        <v>19.18368937085119</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.25330871910899</v>
+        <v>14.23201589531161</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.12761410678644</v>
+        <v>24.41569733181948</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.431556560834392</v>
+        <v>4.267489435512527</v>
       </c>
       <c r="E24">
-        <v>26.8138442474695</v>
+        <v>32.92626406923257</v>
       </c>
       <c r="F24">
-        <v>17.64633333210102</v>
+        <v>18.87053123948141</v>
       </c>
       <c r="G24">
-        <v>18.33070582108011</v>
+        <v>25.10630225610409</v>
       </c>
       <c r="H24">
-        <v>10.87306647731511</v>
+        <v>7.172163958730393</v>
       </c>
       <c r="I24">
-        <v>24.97468797704656</v>
+        <v>22.19773665000833</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.08308466187233</v>
+        <v>11.87711674854562</v>
       </c>
       <c r="M24">
-        <v>16.15153329136439</v>
+        <v>17.80762135316604</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.20479087240159</v>
+        <v>13.05818115030972</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.18761916884394</v>
+        <v>22.20120756013695</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.302549633918447</v>
+        <v>3.941819468764841</v>
       </c>
       <c r="E25">
-        <v>25.98424847407998</v>
+        <v>30.66763206097559</v>
       </c>
       <c r="F25">
-        <v>17.40741671513138</v>
+        <v>17.2239790165588</v>
       </c>
       <c r="G25">
-        <v>17.76236082560722</v>
+        <v>22.52358233163555</v>
       </c>
       <c r="H25">
-        <v>10.9151223891444</v>
+        <v>6.938203196102405</v>
       </c>
       <c r="I25">
-        <v>24.91071126444923</v>
+        <v>21.28456083425107</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.739242213952446</v>
+        <v>10.82223724733301</v>
       </c>
       <c r="M25">
-        <v>15.65968887962068</v>
+        <v>16.27937982370896</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.17332973051478</v>
+        <v>12.16627234688527</v>
       </c>
     </row>
   </sheetData>
